--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.406520666666666</v>
+        <v>6.91741</v>
       </c>
       <c r="H2">
-        <v>13.219562</v>
+        <v>20.75223</v>
       </c>
       <c r="I2">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="J2">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9430419999999998</v>
+        <v>1.016190333333333</v>
       </c>
       <c r="N2">
-        <v>2.829126</v>
+        <v>3.048571</v>
       </c>
       <c r="O2">
-        <v>0.1826211768903935</v>
+        <v>0.1011512660469171</v>
       </c>
       <c r="P2">
-        <v>0.1826211768903936</v>
+        <v>0.1011512660469171</v>
       </c>
       <c r="Q2">
-        <v>4.155534062534666</v>
+        <v>7.029405173703333</v>
       </c>
       <c r="R2">
-        <v>37.399806562812</v>
+        <v>63.26464656333</v>
       </c>
       <c r="S2">
-        <v>0.02997014285647013</v>
+        <v>0.02361310873263193</v>
       </c>
       <c r="T2">
-        <v>0.02997014285647014</v>
+        <v>0.02361310873263193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.406520666666666</v>
+        <v>6.91741</v>
       </c>
       <c r="H3">
-        <v>13.219562</v>
+        <v>20.75223</v>
       </c>
       <c r="I3">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="J3">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.352754</v>
       </c>
       <c r="O3">
-        <v>0.2164215666972679</v>
+        <v>0.1112440260843082</v>
       </c>
       <c r="P3">
-        <v>0.2164215666972679</v>
+        <v>0.1112440260843082</v>
       </c>
       <c r="Q3">
-        <v>4.924659930416444</v>
+        <v>7.730791349046667</v>
       </c>
       <c r="R3">
-        <v>44.321939373748</v>
+        <v>69.57712214142001</v>
       </c>
       <c r="S3">
-        <v>0.03551715842369753</v>
+        <v>0.02596919827544336</v>
       </c>
       <c r="T3">
-        <v>0.03551715842369753</v>
+        <v>0.02596919827544336</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.406520666666666</v>
+        <v>6.91741</v>
       </c>
       <c r="H4">
-        <v>13.219562</v>
+        <v>20.75223</v>
       </c>
       <c r="I4">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="J4">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.272224666666667</v>
+        <v>5.77911</v>
       </c>
       <c r="N4">
-        <v>3.816674</v>
+        <v>17.33733</v>
       </c>
       <c r="O4">
-        <v>0.2463677820241891</v>
+        <v>0.5752507910667645</v>
       </c>
       <c r="P4">
-        <v>0.2463677820241891</v>
+        <v>0.5752507910667645</v>
       </c>
       <c r="Q4">
-        <v>5.606084286309777</v>
+        <v>39.9764733051</v>
       </c>
       <c r="R4">
-        <v>50.454758576788</v>
+        <v>359.7882597459001</v>
       </c>
       <c r="S4">
-        <v>0.04043166158614897</v>
+        <v>0.1342885759995492</v>
       </c>
       <c r="T4">
-        <v>0.04043166158614898</v>
+        <v>0.1342885759995492</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.406520666666666</v>
+        <v>6.91741</v>
       </c>
       <c r="H5">
-        <v>13.219562</v>
+        <v>20.75223</v>
       </c>
       <c r="I5">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="J5">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3577000000000001</v>
+        <v>0.3634723333333333</v>
       </c>
       <c r="N5">
-        <v>1.0731</v>
+        <v>1.090417</v>
       </c>
       <c r="O5">
-        <v>0.06926901980367131</v>
+        <v>0.03617992169743831</v>
       </c>
       <c r="P5">
-        <v>0.0692690198036713</v>
+        <v>0.03617992169743831</v>
       </c>
       <c r="Q5">
-        <v>1.576212442466667</v>
+        <v>2.514287153323334</v>
       </c>
       <c r="R5">
-        <v>14.1859119822</v>
+        <v>22.62858437991</v>
       </c>
       <c r="S5">
-        <v>0.01136780769017644</v>
+        <v>0.008445968680050526</v>
       </c>
       <c r="T5">
-        <v>0.01136780769017644</v>
+        <v>0.008445968680050526</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.406520666666666</v>
+        <v>6.91741</v>
       </c>
       <c r="H6">
-        <v>13.219562</v>
+        <v>20.75223</v>
       </c>
       <c r="I6">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="J6">
-        <v>0.1641109939536627</v>
+        <v>0.2334435312127427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.473373333333334</v>
+        <v>1.769887</v>
       </c>
       <c r="N6">
-        <v>4.420120000000001</v>
+        <v>5.309661</v>
       </c>
       <c r="O6">
-        <v>0.2853204545844782</v>
+        <v>0.1761739951045719</v>
       </c>
       <c r="P6">
-        <v>0.2853204545844782</v>
+        <v>0.1761739951045719</v>
       </c>
       <c r="Q6">
-        <v>6.49245004304889</v>
+        <v>12.24303403267</v>
       </c>
       <c r="R6">
-        <v>58.43205038744001</v>
+        <v>110.18730629403</v>
       </c>
       <c r="S6">
-        <v>0.04682422339716959</v>
+        <v>0.04112667952506771</v>
       </c>
       <c r="T6">
-        <v>0.04682422339716959</v>
+        <v>0.04112667952506771</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>23.411895</v>
       </c>
       <c r="I7">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546029</v>
       </c>
       <c r="J7">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546028</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9430419999999998</v>
+        <v>1.016190333333333</v>
       </c>
       <c r="N7">
-        <v>2.829126</v>
+        <v>3.048571</v>
       </c>
       <c r="O7">
-        <v>0.1826211768903935</v>
+        <v>0.1011512660469171</v>
       </c>
       <c r="P7">
-        <v>0.1826211768903936</v>
+        <v>0.1011512660469171</v>
       </c>
       <c r="Q7">
-        <v>7.359466761529998</v>
+        <v>7.930313794671665</v>
       </c>
       <c r="R7">
-        <v>66.23520085376998</v>
+        <v>71.37282415204498</v>
       </c>
       <c r="S7">
-        <v>0.0530772379365276</v>
+        <v>0.02663943211269159</v>
       </c>
       <c r="T7">
-        <v>0.05307723793652762</v>
+        <v>0.02663943211269159</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>23.411895</v>
       </c>
       <c r="I8">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546029</v>
       </c>
       <c r="J8">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546028</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.352754</v>
       </c>
       <c r="O8">
-        <v>0.2164215666972679</v>
+        <v>0.1112440260843082</v>
       </c>
       <c r="P8">
-        <v>0.2164215666972679</v>
+        <v>0.1112440260843082</v>
       </c>
       <c r="Q8">
         <v>8.721591623203333</v>
@@ -948,10 +948,10 @@
         <v>78.49432460883</v>
       </c>
       <c r="S8">
-        <v>0.06290102377930312</v>
+        <v>0.02929748481290256</v>
       </c>
       <c r="T8">
-        <v>0.06290102377930312</v>
+        <v>0.02929748481290256</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>23.411895</v>
       </c>
       <c r="I9">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546029</v>
       </c>
       <c r="J9">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546028</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.272224666666667</v>
+        <v>5.77911</v>
       </c>
       <c r="N9">
-        <v>3.816674</v>
+        <v>17.33733</v>
       </c>
       <c r="O9">
-        <v>0.2463677820241891</v>
+        <v>0.5752507910667645</v>
       </c>
       <c r="P9">
-        <v>0.2463677820241891</v>
+        <v>0.5752507910667645</v>
       </c>
       <c r="Q9">
-        <v>9.928396770803332</v>
+        <v>45.09997217114999</v>
       </c>
       <c r="R9">
-        <v>89.35557093722998</v>
+        <v>405.89974954035</v>
       </c>
       <c r="S9">
-        <v>0.07160462772748849</v>
+        <v>0.1514993830061138</v>
       </c>
       <c r="T9">
-        <v>0.07160462772748849</v>
+        <v>0.1514993830061138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>23.411895</v>
       </c>
       <c r="I10">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546029</v>
       </c>
       <c r="J10">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546028</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3577000000000001</v>
+        <v>0.3634723333333333</v>
       </c>
       <c r="N10">
-        <v>1.0731</v>
+        <v>1.090417</v>
       </c>
       <c r="O10">
-        <v>0.06926901980367131</v>
+        <v>0.03617992169743831</v>
       </c>
       <c r="P10">
-        <v>0.0692690198036713</v>
+        <v>0.03617992169743831</v>
       </c>
       <c r="Q10">
-        <v>2.7914782805</v>
+        <v>2.836525367801666</v>
       </c>
       <c r="R10">
-        <v>25.1233045245</v>
+        <v>25.528728310215</v>
       </c>
       <c r="S10">
-        <v>0.02013243101568746</v>
+        <v>0.009528428121249211</v>
       </c>
       <c r="T10">
-        <v>0.02013243101568746</v>
+        <v>0.009528428121249207</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>23.411895</v>
       </c>
       <c r="I11">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546029</v>
       </c>
       <c r="J11">
-        <v>0.290641199669761</v>
+        <v>0.2633623201546028</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.473373333333334</v>
+        <v>1.769887</v>
       </c>
       <c r="N11">
-        <v>4.420120000000001</v>
+        <v>5.309661</v>
       </c>
       <c r="O11">
-        <v>0.2853204545844782</v>
+        <v>0.1761739951045719</v>
       </c>
       <c r="P11">
-        <v>0.2853204545844782</v>
+        <v>0.1761739951045719</v>
       </c>
       <c r="Q11">
-        <v>11.49815392526667</v>
+        <v>13.812136201955</v>
       </c>
       <c r="R11">
-        <v>103.4833853274</v>
+        <v>124.309225817595</v>
       </c>
       <c r="S11">
-        <v>0.08292587921075431</v>
+        <v>0.04639759210164571</v>
       </c>
       <c r="T11">
-        <v>0.08292587921075431</v>
+        <v>0.04639759210164569</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.304521333333333</v>
+        <v>6.430676666666667</v>
       </c>
       <c r="H12">
-        <v>15.913564</v>
+        <v>19.29203</v>
       </c>
       <c r="I12">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="J12">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9430419999999998</v>
+        <v>1.016190333333333</v>
       </c>
       <c r="N12">
-        <v>2.829126</v>
+        <v>3.048571</v>
       </c>
       <c r="O12">
-        <v>0.1826211768903935</v>
+        <v>0.1011512660469171</v>
       </c>
       <c r="P12">
-        <v>0.1826211768903936</v>
+        <v>0.1011512660469171</v>
       </c>
       <c r="Q12">
-        <v>5.002386407229332</v>
+        <v>6.534791465458889</v>
       </c>
       <c r="R12">
-        <v>45.02147766506399</v>
+        <v>58.81312318913</v>
       </c>
       <c r="S12">
-        <v>0.03607772983973147</v>
+        <v>0.02195160722790742</v>
       </c>
       <c r="T12">
-        <v>0.03607772983973148</v>
+        <v>0.02195160722790742</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.304521333333333</v>
+        <v>6.430676666666667</v>
       </c>
       <c r="H13">
-        <v>15.913564</v>
+        <v>19.29203</v>
       </c>
       <c r="I13">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="J13">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.352754</v>
       </c>
       <c r="O13">
-        <v>0.2164215666972679</v>
+        <v>0.1112440260843082</v>
       </c>
       <c r="P13">
-        <v>0.2164215666972679</v>
+        <v>0.1112440260843082</v>
       </c>
       <c r="Q13">
-        <v>5.928251706139555</v>
+        <v>7.186825638957778</v>
       </c>
       <c r="R13">
-        <v>53.354265355256</v>
+        <v>64.68143075062</v>
       </c>
       <c r="S13">
-        <v>0.04275516644754567</v>
+        <v>0.02414191401144848</v>
       </c>
       <c r="T13">
-        <v>0.04275516644754567</v>
+        <v>0.02414191401144848</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.304521333333333</v>
+        <v>6.430676666666667</v>
       </c>
       <c r="H14">
-        <v>15.913564</v>
+        <v>19.29203</v>
       </c>
       <c r="I14">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="J14">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.272224666666667</v>
+        <v>5.77911</v>
       </c>
       <c r="N14">
-        <v>3.816674</v>
+        <v>17.33733</v>
       </c>
       <c r="O14">
-        <v>0.2463677820241891</v>
+        <v>0.5752507910667645</v>
       </c>
       <c r="P14">
-        <v>0.2463677820241891</v>
+        <v>0.5752507910667645</v>
       </c>
       <c r="Q14">
-        <v>6.748542885126221</v>
+        <v>37.1635878311</v>
       </c>
       <c r="R14">
-        <v>60.73688596613599</v>
+        <v>334.4722904799</v>
       </c>
       <c r="S14">
-        <v>0.04867119154761128</v>
+        <v>0.1248395587770848</v>
       </c>
       <c r="T14">
-        <v>0.04867119154761129</v>
+        <v>0.1248395587770848</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.304521333333333</v>
+        <v>6.430676666666667</v>
       </c>
       <c r="H15">
-        <v>15.913564</v>
+        <v>19.29203</v>
       </c>
       <c r="I15">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="J15">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3577000000000001</v>
+        <v>0.3634723333333333</v>
       </c>
       <c r="N15">
-        <v>1.0731</v>
+        <v>1.090417</v>
       </c>
       <c r="O15">
-        <v>0.06926901980367131</v>
+        <v>0.03617992169743831</v>
       </c>
       <c r="P15">
-        <v>0.0692690198036713</v>
+        <v>0.03617992169743831</v>
       </c>
       <c r="Q15">
-        <v>1.897427280933333</v>
+        <v>2.337373052945556</v>
       </c>
       <c r="R15">
-        <v>17.0768455284</v>
+        <v>21.03635747651</v>
       </c>
       <c r="S15">
-        <v>0.01368444243593812</v>
+        <v>0.007851680573827253</v>
       </c>
       <c r="T15">
-        <v>0.01368444243593812</v>
+        <v>0.007851680573827253</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.304521333333333</v>
+        <v>6.430676666666667</v>
       </c>
       <c r="H16">
-        <v>15.913564</v>
+        <v>19.29203</v>
       </c>
       <c r="I16">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="J16">
-        <v>0.1975550177369889</v>
+        <v>0.2170176220802376</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.473373333333334</v>
+        <v>1.769887</v>
       </c>
       <c r="N16">
-        <v>4.420120000000001</v>
+        <v>5.309661</v>
       </c>
       <c r="O16">
-        <v>0.2853204545844782</v>
+        <v>0.1761739951045719</v>
       </c>
       <c r="P16">
-        <v>0.2853204545844782</v>
+        <v>0.1761739951045719</v>
       </c>
       <c r="Q16">
-        <v>7.815540278631112</v>
+        <v>11.38157103353667</v>
       </c>
       <c r="R16">
-        <v>70.33986250768001</v>
+        <v>102.43413930183</v>
       </c>
       <c r="S16">
-        <v>0.05636648746616232</v>
+        <v>0.03823286148996961</v>
       </c>
       <c r="T16">
-        <v>0.05636648746616232</v>
+        <v>0.03823286148996961</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.830591666666667</v>
+        <v>4.144241333333333</v>
       </c>
       <c r="H17">
-        <v>11.491775</v>
+        <v>12.432724</v>
       </c>
       <c r="I17">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="J17">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9430419999999998</v>
+        <v>1.016190333333333</v>
       </c>
       <c r="N17">
-        <v>2.829126</v>
+        <v>3.048571</v>
       </c>
       <c r="O17">
-        <v>0.1826211768903935</v>
+        <v>0.1011512660469171</v>
       </c>
       <c r="P17">
-        <v>0.1826211768903936</v>
+        <v>0.1011512660469171</v>
       </c>
       <c r="Q17">
-        <v>3.612408826516666</v>
+        <v>4.211337981933778</v>
       </c>
       <c r="R17">
-        <v>32.51167943865</v>
+        <v>37.902041837404</v>
       </c>
       <c r="S17">
-        <v>0.02605306729711711</v>
+        <v>0.01414668513479287</v>
       </c>
       <c r="T17">
-        <v>0.02605306729711712</v>
+        <v>0.01414668513479287</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.830591666666667</v>
+        <v>4.144241333333333</v>
       </c>
       <c r="H18">
-        <v>11.491775</v>
+        <v>12.432724</v>
       </c>
       <c r="I18">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="J18">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.352754</v>
       </c>
       <c r="O18">
-        <v>0.2164215666972679</v>
+        <v>0.1112440260843082</v>
       </c>
       <c r="P18">
-        <v>0.2164215666972679</v>
+        <v>0.1112440260843082</v>
       </c>
       <c r="Q18">
-        <v>4.281010510927778</v>
+        <v>4.631540569099556</v>
       </c>
       <c r="R18">
-        <v>38.52909459835</v>
+        <v>41.683865121896</v>
       </c>
       <c r="S18">
-        <v>0.03087509202229898</v>
+        <v>0.01555822553334573</v>
       </c>
       <c r="T18">
-        <v>0.03087509202229898</v>
+        <v>0.01555822553334573</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.830591666666667</v>
+        <v>4.144241333333333</v>
       </c>
       <c r="H19">
-        <v>11.491775</v>
+        <v>12.432724</v>
       </c>
       <c r="I19">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="J19">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.272224666666667</v>
+        <v>5.77911</v>
       </c>
       <c r="N19">
-        <v>3.816674</v>
+        <v>17.33733</v>
       </c>
       <c r="O19">
-        <v>0.2463677820241891</v>
+        <v>0.5752507910667645</v>
       </c>
       <c r="P19">
-        <v>0.2463677820241891</v>
+        <v>0.5752507910667645</v>
       </c>
       <c r="Q19">
-        <v>4.873373206261111</v>
+        <v>23.95002653188</v>
       </c>
       <c r="R19">
-        <v>43.86035885635</v>
+        <v>215.55023878692</v>
       </c>
       <c r="S19">
-        <v>0.03514727324734111</v>
+        <v>0.08045269360234629</v>
       </c>
       <c r="T19">
-        <v>0.03514727324734112</v>
+        <v>0.08045269360234629</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.830591666666667</v>
+        <v>4.144241333333333</v>
       </c>
       <c r="H20">
-        <v>11.491775</v>
+        <v>12.432724</v>
       </c>
       <c r="I20">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="J20">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3577000000000001</v>
+        <v>0.3634723333333333</v>
       </c>
       <c r="N20">
-        <v>1.0731</v>
+        <v>1.090417</v>
       </c>
       <c r="O20">
-        <v>0.06926901980367131</v>
+        <v>0.03617992169743831</v>
       </c>
       <c r="P20">
-        <v>0.0692690198036713</v>
+        <v>0.03617992169743831</v>
       </c>
       <c r="Q20">
-        <v>1.370202639166667</v>
+        <v>1.506317067323111</v>
       </c>
       <c r="R20">
-        <v>12.3318237525</v>
+        <v>13.556853605908</v>
       </c>
       <c r="S20">
-        <v>0.00988204361224505</v>
+        <v>0.005060005479493649</v>
       </c>
       <c r="T20">
-        <v>0.009882043612245048</v>
+        <v>0.005060005479493649</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.830591666666667</v>
+        <v>4.144241333333333</v>
       </c>
       <c r="H21">
-        <v>11.491775</v>
+        <v>12.432724</v>
       </c>
       <c r="I21">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="J21">
-        <v>0.1426618081250992</v>
+        <v>0.1398567283204463</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.473373333333334</v>
+        <v>1.769887</v>
       </c>
       <c r="N21">
-        <v>4.420120000000001</v>
+        <v>5.309661</v>
       </c>
       <c r="O21">
-        <v>0.2853204545844782</v>
+        <v>0.1761739951045719</v>
       </c>
       <c r="P21">
-        <v>0.2853204545844782</v>
+        <v>0.1761739951045719</v>
       </c>
       <c r="Q21">
-        <v>5.643891612555557</v>
+        <v>7.334838860729334</v>
       </c>
       <c r="R21">
-        <v>50.79502451300001</v>
+        <v>66.01354974656401</v>
       </c>
       <c r="S21">
-        <v>0.04070433194609691</v>
+        <v>0.02463911857046775</v>
       </c>
       <c r="T21">
-        <v>0.04070433194609691</v>
+        <v>0.02463911857046775</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.505257333333333</v>
+        <v>4.335755333333334</v>
       </c>
       <c r="H22">
-        <v>16.515772</v>
+        <v>13.007266</v>
       </c>
       <c r="I22">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="J22">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9430419999999998</v>
+        <v>1.016190333333333</v>
       </c>
       <c r="N22">
-        <v>2.829126</v>
+        <v>3.048571</v>
       </c>
       <c r="O22">
-        <v>0.1826211768903935</v>
+        <v>0.1011512660469171</v>
       </c>
       <c r="P22">
-        <v>0.1826211768903936</v>
+        <v>0.1011512660469171</v>
       </c>
       <c r="Q22">
-        <v>5.191688886141332</v>
+        <v>4.405952657431778</v>
       </c>
       <c r="R22">
-        <v>46.72519997527199</v>
+        <v>39.653573916886</v>
       </c>
       <c r="S22">
-        <v>0.03744299896054721</v>
+        <v>0.01480043283889329</v>
       </c>
       <c r="T22">
-        <v>0.03744299896054722</v>
+        <v>0.01480043283889329</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.505257333333333</v>
+        <v>4.335755333333334</v>
       </c>
       <c r="H23">
-        <v>16.515772</v>
+        <v>13.007266</v>
       </c>
       <c r="I23">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="J23">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.352754</v>
       </c>
       <c r="O23">
-        <v>0.2164215666972679</v>
+        <v>0.1112440260843082</v>
       </c>
       <c r="P23">
-        <v>0.2164215666972679</v>
+        <v>0.1112440260843082</v>
       </c>
       <c r="Q23">
-        <v>6.152591181787555</v>
+        <v>4.845573678951556</v>
       </c>
       <c r="R23">
-        <v>55.373320636088</v>
+        <v>43.610163110564</v>
       </c>
       <c r="S23">
-        <v>0.04437312602442257</v>
+        <v>0.01627720345116805</v>
       </c>
       <c r="T23">
-        <v>0.04437312602442257</v>
+        <v>0.01627720345116804</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.505257333333333</v>
+        <v>4.335755333333334</v>
       </c>
       <c r="H24">
-        <v>16.515772</v>
+        <v>13.007266</v>
       </c>
       <c r="I24">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="J24">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.272224666666667</v>
+        <v>5.77911</v>
       </c>
       <c r="N24">
-        <v>3.816674</v>
+        <v>17.33733</v>
       </c>
       <c r="O24">
-        <v>0.2463677820241891</v>
+        <v>0.5752507910667645</v>
       </c>
       <c r="P24">
-        <v>0.2463677820241891</v>
+        <v>0.5752507910667645</v>
       </c>
       <c r="Q24">
-        <v>7.003924175814221</v>
+        <v>25.05680700442</v>
       </c>
       <c r="R24">
-        <v>63.03531758232799</v>
+        <v>225.51126303978</v>
       </c>
       <c r="S24">
-        <v>0.05051302791559923</v>
+        <v>0.08417057968167045</v>
       </c>
       <c r="T24">
-        <v>0.05051302791559924</v>
+        <v>0.08417057968167044</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.505257333333333</v>
+        <v>4.335755333333334</v>
       </c>
       <c r="H25">
-        <v>16.515772</v>
+        <v>13.007266</v>
       </c>
       <c r="I25">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="J25">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3577000000000001</v>
+        <v>0.3634723333333333</v>
       </c>
       <c r="N25">
-        <v>1.0731</v>
+        <v>1.090417</v>
       </c>
       <c r="O25">
-        <v>0.06926901980367131</v>
+        <v>0.03617992169743831</v>
       </c>
       <c r="P25">
-        <v>0.0692690198036713</v>
+        <v>0.03617992169743831</v>
       </c>
       <c r="Q25">
-        <v>1.969230548133334</v>
+        <v>1.575927107769111</v>
       </c>
       <c r="R25">
-        <v>17.7230749332</v>
+        <v>14.183343969922</v>
       </c>
       <c r="S25">
-        <v>0.01420229504962424</v>
+        <v>0.005293838842817668</v>
       </c>
       <c r="T25">
-        <v>0.01420229504962424</v>
+        <v>0.005293838842817668</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.505257333333333</v>
+        <v>4.335755333333334</v>
       </c>
       <c r="H26">
-        <v>16.515772</v>
+        <v>13.007266</v>
       </c>
       <c r="I26">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="J26">
-        <v>0.2050309805144884</v>
+        <v>0.1463197982319706</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.473373333333334</v>
+        <v>1.769887</v>
       </c>
       <c r="N26">
-        <v>4.420120000000001</v>
+        <v>5.309661</v>
       </c>
       <c r="O26">
-        <v>0.2853204545844782</v>
+        <v>0.1761739951045719</v>
       </c>
       <c r="P26">
-        <v>0.2853204545844782</v>
+        <v>0.1761739951045719</v>
       </c>
       <c r="Q26">
-        <v>8.111299348071112</v>
+        <v>7.673796999647335</v>
       </c>
       <c r="R26">
-        <v>73.00169413264001</v>
+        <v>69.06417299682602</v>
       </c>
       <c r="S26">
-        <v>0.05849953256429512</v>
+        <v>0.02577774341742114</v>
       </c>
       <c r="T26">
-        <v>0.05849953256429512</v>
+        <v>0.02577774341742113</v>
       </c>
     </row>
   </sheetData>
